--- a/src/main/java/com/selenium_framework/userdata.xlsx
+++ b/src/main/java/com/selenium_framework/userdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SeleniumFramework\seleniumframework\src\main\java\com\selenium_framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SeleniumFramework\new\src\main\java\com\selenium_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B9858-6019-490D-9A5E-54FDEA62630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077AC1C6-0895-4542-A886-7EEAB772D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="3540" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
